--- a/observations/orbit_plans/mtp033/nomad_mtp033_plan.xlsx
+++ b/observations/orbit_plans/mtp033/nomad_mtp033_plan.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp033\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BD5EF-3BA8-40C6-B44E-E15A1B4AC0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1759,8 +1765,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1797,6 +1803,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1843,7 +1857,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1875,9 +1889,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1909,6 +1941,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2084,14 +2134,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2149,7 +2201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2172,7 +2224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2186,7 +2238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2212,7 +2264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2226,7 +2278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2237,7 +2289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2251,7 +2303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2277,7 +2329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2300,7 +2352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2314,7 +2366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2334,7 +2386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2360,7 +2412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2374,7 +2426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2400,7 +2452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2414,7 +2466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2437,7 +2489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2460,7 +2512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2474,7 +2526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2500,7 +2552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2514,7 +2566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2540,7 +2592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2554,7 +2606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2577,7 +2629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2603,7 +2655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2617,7 +2669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2643,7 +2695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2657,7 +2709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2680,7 +2732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2706,7 +2758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2720,7 +2772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2743,7 +2795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2760,7 +2812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2783,7 +2835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2809,7 +2861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2823,7 +2875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2837,7 +2889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2860,7 +2912,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2877,7 +2929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2900,7 +2952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2917,7 +2969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2940,7 +2992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2966,7 +3018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2980,7 +3032,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3003,7 +3055,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -3017,7 +3069,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3040,7 +3092,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3057,7 +3109,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3080,7 +3132,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3103,7 +3155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3117,7 +3169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3143,7 +3195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -3157,7 +3209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3183,7 +3235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3209,7 +3261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3223,7 +3275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3246,7 +3298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3260,7 +3312,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3286,7 +3338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3309,7 +3361,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3326,7 +3378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3340,7 +3392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3363,7 +3415,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3377,7 +3429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3403,7 +3455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3417,7 +3469,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3443,7 +3495,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3466,7 +3518,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3480,7 +3532,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3506,7 +3558,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3520,7 +3572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3546,7 +3598,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3560,7 +3612,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3583,7 +3635,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3606,7 +3658,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3620,7 +3672,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3646,7 +3698,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3660,7 +3712,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3683,7 +3735,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3709,7 +3761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3723,7 +3775,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3746,7 +3798,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3760,7 +3812,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3786,7 +3838,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>14</v>
       </c>
@@ -3797,7 +3849,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3808,7 +3860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3819,7 +3871,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3836,7 +3888,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3859,7 +3911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3873,7 +3925,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3896,7 +3948,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -3913,7 +3965,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3936,7 +3988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -3950,7 +4002,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3973,7 +4025,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3996,7 +4048,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -4013,7 +4065,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4036,7 +4088,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -4053,7 +4105,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
@@ -4067,7 +4119,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4093,7 +4145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>14</v>
       </c>
@@ -4107,7 +4159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4130,7 +4182,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4156,7 +4208,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4170,7 +4222,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4193,7 +4245,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -4210,7 +4262,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4233,7 +4285,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4256,7 +4308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -4273,7 +4325,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4296,7 +4348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4310,7 +4362,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4333,7 +4385,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4359,7 +4411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -4373,7 +4425,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4396,7 +4448,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -4413,7 +4465,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4436,7 +4488,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4450,7 +4502,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4473,7 +4525,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4499,7 +4551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4513,12 +4565,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -4536,7 +4588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4559,7 +4611,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -4573,7 +4625,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4599,7 +4651,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4636,7 +4688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4662,7 +4714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4676,7 +4728,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4702,7 +4754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4716,7 +4768,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4739,7 +4791,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4762,7 +4814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -4779,7 +4831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4802,7 +4854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4816,7 +4868,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4839,7 +4891,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4865,7 +4917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4879,7 +4931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4905,7 +4957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4919,7 +4971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4942,7 +4994,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4956,7 +5008,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4982,7 +5034,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5005,7 +5057,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>47</v>
       </c>
@@ -5025,7 +5077,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>14</v>
       </c>
@@ -5039,7 +5091,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -5070,7 +5122,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5093,7 +5145,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -5107,7 +5159,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5130,7 +5182,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -5147,7 +5199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5170,7 +5222,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5196,7 +5248,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>14</v>
       </c>
@@ -5210,7 +5262,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5233,7 +5285,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -5250,7 +5302,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5273,7 +5325,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5296,7 +5348,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3</v>
       </c>
@@ -5313,7 +5365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5336,7 +5388,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5350,7 +5402,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5376,7 +5428,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5399,7 +5451,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -5416,7 +5468,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5439,7 +5491,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>14</v>
       </c>
@@ -5453,7 +5505,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5479,7 +5531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5493,7 +5545,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5504,7 +5556,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5518,7 +5570,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5535,7 +5587,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5558,7 +5610,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5584,7 +5636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5598,7 +5650,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5621,7 +5673,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -5638,7 +5690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5661,7 +5713,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5678,7 +5730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5701,7 +5753,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5724,7 +5776,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14</v>
       </c>
@@ -5735,7 +5787,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5749,7 +5801,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>14</v>
       </c>
@@ -5763,7 +5815,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5789,7 +5841,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14</v>
       </c>
@@ -5803,7 +5855,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5852,7 +5904,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14</v>
       </c>
@@ -5866,7 +5918,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5892,7 +5944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>14</v>
       </c>
@@ -5906,7 +5958,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5932,7 +5984,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5955,7 +6007,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>14</v>
       </c>
@@ -5969,7 +6021,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5995,7 +6047,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>14</v>
       </c>
@@ -6009,7 +6061,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6032,7 +6084,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14</v>
       </c>
@@ -6046,7 +6098,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6072,7 +6124,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -6095,7 +6147,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>14</v>
       </c>
@@ -6109,7 +6161,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6135,7 +6187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>14</v>
       </c>
@@ -6149,7 +6201,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6172,7 +6224,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6186,7 +6238,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6212,7 +6264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -6235,7 +6287,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>14</v>
       </c>
@@ -6249,7 +6301,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6266,7 +6318,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -6289,7 +6341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>14</v>
       </c>
@@ -6303,7 +6355,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -6329,7 +6381,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6352,7 +6404,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -6369,7 +6421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -6392,7 +6444,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>14</v>
       </c>
@@ -6406,7 +6458,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -6432,7 +6484,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6455,7 +6507,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6469,7 +6521,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6495,7 +6547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6509,7 +6561,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6532,7 +6584,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14</v>
       </c>
@@ -6546,7 +6598,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -6572,7 +6624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6595,7 +6647,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>14</v>
       </c>
@@ -6609,7 +6661,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6632,7 +6684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>3</v>
       </c>
@@ -6649,7 +6701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6672,7 +6724,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6686,7 +6738,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6712,7 +6764,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6735,7 +6787,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>14</v>
       </c>
@@ -6749,7 +6801,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>7</v>
       </c>
@@ -6769,7 +6821,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6795,7 +6847,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14</v>
       </c>
@@ -6809,7 +6861,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -6835,7 +6887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -6858,7 +6910,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -6875,7 +6927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6898,7 +6950,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14</v>
       </c>
@@ -6912,7 +6964,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -6938,7 +6990,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6961,7 +7013,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3</v>
       </c>
@@ -6978,7 +7030,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -7010,7 +7062,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14</v>
       </c>
@@ -7024,7 +7076,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>14</v>
       </c>
@@ -7038,7 +7090,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7073,7 +7125,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>14</v>
       </c>
@@ -7087,7 +7139,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7119,7 +7171,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7151,7 +7203,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>3</v>
       </c>
@@ -7168,7 +7220,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7200,7 +7252,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>28</v>
       </c>
@@ -7217,7 +7269,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>14</v>
       </c>
@@ -7228,7 +7280,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7239,7 +7291,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7256,7 +7308,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>14</v>
       </c>
@@ -7270,7 +7322,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -7284,7 +7336,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3</v>
       </c>
@@ -7301,7 +7353,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7333,7 +7385,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>14</v>
       </c>
@@ -7347,7 +7399,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7379,7 +7431,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7414,7 +7466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7428,7 +7480,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7460,7 +7512,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>14</v>
       </c>
@@ -7474,7 +7526,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7506,7 +7558,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7541,7 +7593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>14</v>
       </c>
@@ -7555,7 +7607,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>14</v>
       </c>
@@ -7569,7 +7621,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7604,7 +7656,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>14</v>
       </c>
@@ -7618,7 +7670,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7650,7 +7702,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1</v>
       </c>
@@ -7682,7 +7734,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -7699,7 +7751,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7731,7 +7783,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7745,7 +7797,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7780,7 +7832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14</v>
       </c>
@@ -7794,7 +7846,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>14</v>
       </c>
@@ -7808,7 +7860,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7843,7 +7895,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>14</v>
       </c>
@@ -7857,7 +7909,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>14</v>
       </c>
@@ -7871,7 +7923,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
@@ -7903,7 +7955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3</v>
       </c>
@@ -7920,7 +7972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14</v>
       </c>
@@ -7934,7 +7986,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -7966,7 +8018,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3</v>
       </c>
@@ -7983,7 +8035,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -8015,7 +8067,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>28</v>
       </c>
@@ -8032,7 +8084,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>14</v>
       </c>
@@ -8046,7 +8098,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>14</v>
       </c>
@@ -8060,7 +8112,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
@@ -8095,7 +8147,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8127,7 +8179,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8141,7 +8193,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>14</v>
       </c>
@@ -8155,7 +8207,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -8172,7 +8224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1</v>
       </c>
@@ -8204,7 +8256,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>14</v>
       </c>
@@ -8218,7 +8270,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8250,7 +8302,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
@@ -8285,7 +8337,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>14</v>
       </c>
@@ -8299,7 +8351,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3</v>
       </c>
@@ -8316,7 +8368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -8348,7 +8400,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>14</v>
       </c>
@@ -8362,7 +8414,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -8397,7 +8449,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
@@ -8411,7 +8463,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -8443,7 +8495,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8457,7 +8509,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3</v>
       </c>
@@ -8474,7 +8526,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8506,7 +8558,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8520,7 +8572,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8555,7 +8607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8569,7 +8621,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>8</v>
       </c>
@@ -8586,7 +8638,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -8618,7 +8670,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8653,7 +8705,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14</v>
       </c>
@@ -8667,7 +8719,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8699,7 +8751,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>14</v>
       </c>
@@ -8713,7 +8765,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>7</v>
       </c>
@@ -8733,7 +8785,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3</v>
       </c>
@@ -8750,7 +8802,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8782,7 +8834,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>14</v>
       </c>
@@ -8796,7 +8848,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -8831,7 +8883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -8863,7 +8915,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8874,7 +8926,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>14</v>
       </c>
@@ -8888,7 +8940,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
@@ -8902,7 +8954,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -8937,7 +8989,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3</v>
       </c>
@@ -8954,7 +9006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>14</v>
       </c>
@@ -8968,7 +9020,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -9000,7 +9052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>14</v>
       </c>
@@ -9014,7 +9066,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9049,7 +9101,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>14</v>
       </c>
@@ -9063,7 +9115,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1</v>
       </c>
@@ -9095,7 +9147,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3</v>
       </c>
@@ -9112,7 +9164,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
